--- a/FT61XX/CODE/4-TIMER0/timer0.xlsx
+++ b/FT61XX/CODE/4-TIMER0/timer0.xlsx
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -448,15 +448,15 @@
       </c>
       <c r="B8" s="1">
         <f>(1/B1)*B2</f>
-        <v>1.2499999999999999E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="D8" s="1">
         <f>B8*1000</f>
-        <v>1.25E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="E8" s="1">
         <f>B8*1000000</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -465,15 +465,15 @@
       </c>
       <c r="B9" s="1">
         <f>B8*B3</f>
-        <v>2.4999999999999999E-7</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="D9" s="1">
         <f>B9*1000</f>
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E9" s="1">
         <f>B9*1000000</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -482,23 +482,23 @@
       </c>
       <c r="B10" s="1">
         <f>(256-B4)*B9</f>
-        <v>4.9999999999999996E-5</v>
+        <v>1.0349999999999999E-4</v>
       </c>
       <c r="D10" s="2">
         <f>B10*1000</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="E10" s="2">
         <f>B10*1000000</f>
-        <v>49.999999999999993</v>
+        <v>103.5</v>
       </c>
       <c r="G10" s="3">
         <f>(1/B10)/2</f>
-        <v>10000</v>
+        <v>4830.9178743961356</v>
       </c>
       <c r="H10" s="3">
         <f>G10/1000</f>
-        <v>10</v>
+        <v>4.8309178743961354</v>
       </c>
     </row>
   </sheetData>
